--- a/docs/performance.xlsx
+++ b/docs/performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ktcapp\cygwin\home\neustifa\Development\ris-devel-vm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8060D006-54F6-4A72-8C62-18B4DE5DDA06}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{301D0FCC-8002-46F0-87C0-FDD0F665DF07}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" xr2:uid="{A0B5F260-353C-41C5-9308-CE8C3893927A}"/>
   </bookViews>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>10 threads sent a total of 2046920 messages</t>
-  </si>
-  <si>
-    <t>19808593 messages took 30.001695061 seconds: 660.249k msgs/sec</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>10 threads sent a total of 1653757 messages</t>
   </si>
@@ -93,10 +84,37 @@
     <t>full</t>
   </si>
   <si>
-    <t>10 threads sent a total of 1422267 messages</t>
-  </si>
-  <si>
-    <t>13946315 messages took 30.008053049 seconds: 464.752k msgs/sec</t>
+    <t>no fprintf</t>
+  </si>
+  <si>
+    <t>10 threads sent a total of 5864702 messages</t>
+  </si>
+  <si>
+    <t>59868160 messages took 30.002119523 seconds: 1.995M msgs/sec</t>
+  </si>
+  <si>
+    <t>no log</t>
+  </si>
+  <si>
+    <t>only fprintf</t>
+  </si>
+  <si>
+    <t>10 threads sent a total of 1437741 messages</t>
+  </si>
+  <si>
+    <t>14440896 messages took 30.001777427 seconds: 481.335k msgs/sec</t>
+  </si>
+  <si>
+    <t>10 threads sent a total of 1973836 messages</t>
+  </si>
+  <si>
+    <t>18772017 messages took 30.001354413 seconds: 625.706k msgs/sec</t>
+  </si>
+  <si>
+    <t>10 threads sent a total of 16660754 messages</t>
+  </si>
+  <si>
+    <t>187952591 messages took 30.000968836 seconds: 6.265M msgs/sec</t>
   </si>
 </sst>
 </file>
@@ -132,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,34 +467,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63CC1309-71D8-46B5-9997-120473530304}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -488,15 +507,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -538,33 +557,60 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>23</v>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>